--- a/medicine/Pharmacie/Liseron/Liseron.xlsx
+++ b/medicine/Pharmacie/Liseron/Liseron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Liseron est un nom vernaculaire ambigu désignant en français certaines plantes herbacées vivaces à rhizome plus ou moins charnu, de la famille des Convolvulaceae (du latin convolvere, « s'enrouler »), à tiges volubiles et feuilles en forme de flèche.
 En France, les espèces présentes appartiennent notamment aux genres Calystegia (comme Calystegia sepium, le Liseron des haies) ou Convolvulus (comme Convolvulus arvensis, le Liseron des champs).
@@ -512,9 +524,11 @@
           <t>Phytonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom des liserons dérive de « lis » du fait de l'aspect de leurs fleurs qui peut évoquer celui des lys[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom des liserons dérive de « lis » du fait de l'aspect de leurs fleurs qui peut évoquer celui des lys.
 </t>
         </is>
       </c>
@@ -543,15 +557,17 @@
           <t>Quelques espèces appelées « liseron »</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Grand liseron - voir Liseron des haies
 Haut-liseron ou tamier commun - Dioscorea communis
 Liseron aquatique - Ipomoea aquatica
 Liseron à feuilles de bétoine - Convolvulus betonicifolius
 Liseron à feuilles laciniées - Ipomoea quamoclit
-Liseron à rayures parallèles[2] - Convolvulus lineatus 
-Liseron argenté[3] - Convolvulus althaeoides subsp. tenuissimus
+Liseron à rayures parallèles - Convolvulus lineatus 
+Liseron argenté - Convolvulus althaeoides subsp. tenuissimus
 Liseron bleu azur - Ipomoea tricolor
 Liseron cantabrique - Convolvulus cantabrica
 Liseron cotonneux - Convolvulus betonicifolius
@@ -561,32 +577,32 @@
 Liseron de Provence - Convolvulus althaeoides
 Liseron des bois - Calystegia silvatica
 Liseron des champs - Convolvulus arvensis
-Liseron duveté[4] - Convolvulus lanuginosus
-Liseron duveteux[4] - Convolvulus lanuginosus
+Liseron duveté - Convolvulus lanuginosus
+Liseron duveteux - Convolvulus lanuginosus
 Liseron des dunes - Calystegia soldanella
 Liseron des forêts - Calystegia sylvatica
 Liseron des haies - Calystegia sepium
-Liseron de Sicile[5] - Convolvulus siculus
+Liseron de Sicile - Convolvulus siculus
 Liseron des Monts Cantabres - Convolvulus cantabrica
 Liseron des sables - Calystegia soldanella
 Liseron de Turquie - Convolvulus cneorum
 Liseron écarlate - Ipomoea coccinea
-Liseron élégant[6]  - Convolvulus elegantissimus
-Liseron élégant[7] - Calystegia ×pulchra
-Liseron épineux[8] - Smilax aspera (Smilacaceae)
+Liseron élégant  - Convolvulus elegantissimus
+Liseron élégant - Calystegia ×pulchra
+Liseron épineux - Smilax aspera (Smilacaceae)
 Liseron fausse-guimauve - Convolvulus althaeoides
 Liseron japonais - Calystegia hederacea
-Liseron joli[9] - Convolvulus dubius
-Liseron laineux[4] - Convolvulus lanuginosus
-Liseron noir des champs[10] - Fallopia convolvulus )(Polygonaceae)
+Liseron joli - Convolvulus dubius
+Liseron laineux - Convolvulus lanuginosus
+Liseron noir des champs - Fallopia convolvulus )(Polygonaceae)
 Liseron pourpre - Ipomoea purpurea
-Liseron rayé[2] - Convolvulus lineatus 
+Liseron rayé - Convolvulus lineatus 
 Liseron scammonée - Convolvulus scammonia
 Liseron soldanelle - Calystegia soldanella
-Liseron ténu[3] - Convolvulus althaeoides subsp. tenuissimus
-Liseron très élégant[6]  - Convolvulus elegantissimus
-Liseron très élégant[11] - Convolvulus althaeoides subsp. tenuissimus
-Liseron tricolore[12] - Convolvulus tricolor</t>
+Liseron ténu - Convolvulus althaeoides subsp. tenuissimus
+Liseron très élégant  - Convolvulus elegantissimus
+Liseron très élégant - Convolvulus althaeoides subsp. tenuissimus
+Liseron tricolore - Convolvulus tricolor</t>
         </is>
       </c>
     </row>
@@ -614,7 +630,9 @@
           <t>Caractéristiques communes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des plantes très mellifères et pollinifères ce qui les rend utiles pour le jardin ou autour des vergers. Communs en Europe, les liserons sont fréquents sur les lisières broussailleuses fraîches à humides et ensoleillées.
 Ce sont des plantes rampantes (y compris le grand liseron en l'absence de support) ou grimpantes dont les tiges poilues (contenant des laticifères) s'étalent sur le sol avec les extrémités relevées. Elles ont des fleurs pédonculées en forme d'entonnoir, blanches, bleues ou roses. À la belle saison, leur croissance est très rapide, jusqu'à une nouvelle feuille par jour[réf. souhaitée].
@@ -647,7 +665,9 @@
           <t>Ennemis</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les papillons de nuit suivants (classés par famille) se nourrissent de liseron : 
 arlequinette jaune,
@@ -681,13 +701,13 @@
           <t>Aspects culturels</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le liseron, présent dans toute la zone tempérée et à climat méditerranéen de l'hémisphère nord, a aussi été nommé « Belle de jour », « lys des champs », « liseron des haies », « calystégie des haies », « chemise de notre dame », « robe de vierge », « chemise de bon dieu », « gloire du matin », « clochette de la vierge », « liset », "clochette des blés"…
 Le fruit est une capsule globuleuse abritant 3 à 4 graines. Ces graines bourrées dans un oreiller avaient la réputation de chasser les cauchemars. Peut-être est-ce là la trace d'une méthode de lutte contre l'espèce qui avant l'époque des désherbants était considérée comme une mauvaise herbe difficile à éliminer par l'agriculteur et les jardiniers[réf. souhaitée].
 L'élégance de la forme des fleurs ainsi que sa tige souvent torsadée ont retenu l'attention des artistes de la période Art déco qui l'ont dessiné ou utilisé comme ornement architectural, en bijou et autres sculptures.
-Langage des fleurs
-Dans le langage des fleurs, le liseron symbolise l'amour idolâtre[13].
 </t>
         </is>
       </c>
@@ -713,16 +733,55 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Aspects culturels</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Langage des fleurs</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le langage des fleurs, le liseron symbolise l'amour idolâtre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liseron</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liseron</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Propriétés médicinales</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Dioscoride et la tradition en font un laxatif et purgatif efficace.
 Au Moyen Âge, les médecins arabes en utilisaient les racines contre la jaunisse. 
 Un auteur du XIe siècle le cite contre les fièvres putrides et bilieuses.
 Brisemorel et Chevalier en isolent une résine très purgative.
-Il est réputé fébrifuge et efficace contre la constipation quand elle résulte d'une insuffisance hépatique, mais ses effets secondaires drastiques (diurétiques et laxatif) en font un produit peu employé. Une enquête ethno botanique publiée en 1984, portant sur les  savoirs populaire et usages des plantes dans la vie quotidienne à au début du XXe siècle, laisse néanmoins entendre qu'« avec la plante entière, on faisait de la tisane contre la diarrhée » (de l'homme et du bétail) ; les auteurs ajoutant que « ses racines sont détruites par l'urine de cheval »[14].
+Il est réputé fébrifuge et efficace contre la constipation quand elle résulte d'une insuffisance hépatique, mais ses effets secondaires drastiques (diurétiques et laxatif) en font un produit peu employé. Une enquête ethno botanique publiée en 1984, portant sur les  savoirs populaire et usages des plantes dans la vie quotidienne à au début du XXe siècle, laisse néanmoins entendre qu'« avec la plante entière, on faisait de la tisane contre la diarrhée » (de l'homme et du bétail) ; les auteurs ajoutant que « ses racines sont détruites par l'urine de cheval ».
 Quelques feuilles de liseron écrasées dans les doigts et appliquées sur un furoncle (ou « clou ») le feront percer rapidement.
 </t>
         </is>
